--- a/public/template_xls/template_kontrak.xlsx
+++ b/public/template_xls/template_kontrak.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ies\public\template_xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11C6AF3-30C8-40AD-ACD7-2752A6DDB9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFE2462-B884-4610-BD97-BED635A94091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F36BE757-7840-428F-B9FD-226C1B34BFAA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Nama Kontrak</t>
   </si>
@@ -63,6 +63,41 @@
   </si>
   <si>
     <t>15-ITOD-2023</t>
+  </si>
+  <si>
+    <t>Start of Kontrak</t>
+  </si>
+  <si>
+    <t>End of Kontrak</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*Note :
+- Kolom isian tidak boleh kosong
+- Input Vendor ID sesuai dengan ID yang terdaftar
+- Pastikan seluruh kolom yang kosong </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dihapus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, dengan cara blok kolom yang kosong kemudian klik kanan -&gt; pilih delete  -&gt; ok</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -70,9 +105,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +125,29 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,13 +173,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,43 +509,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270B27F8-6628-4531-966A-4408389C0925}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D3" sqref="D3:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.5703125" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="I1" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -485,12 +571,19 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="2">
         <v>45021</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
+        <v>45752</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45387</v>
+      </c>
+      <c r="H2" s="1">
         <v>1</v>
       </c>
+      <c r="I2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/public/template_xls/template_kontrak.xlsx
+++ b/public/template_xls/template_kontrak.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ies\public\template_xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\template_xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFE2462-B884-4610-BD97-BED635A94091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2E024E-F688-4B8E-8893-9FBDF0DA70B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F36BE757-7840-428F-B9FD-226C1B34BFAA}"/>
   </bookViews>
@@ -173,13 +173,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -512,7 +509,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:I1048576"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,31 +527,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -583,7 +580,6 @@
       <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
